--- a/data/trans_bre/P12B1_1_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P12B1_1_R-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,10 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +546,18 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -571,27 +579,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -606,6 +634,10 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +652,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-5,86</t>
+          <t>-0,63</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-12,28</t>
+          <t>-0,53</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-10,85</t>
+          <t>-0,71</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>5,92</t>
+          <t>-0,12</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-38,56%</t>
+          <t>0,46</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-42,84%</t>
+          <t>-0,86</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-44,97%</t>
+          <t>-42,62%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>55,17%</t>
+          <t>-24,66%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>-38,75%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-5,89%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>41,5%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-33,92%</t>
         </is>
       </c>
     </row>
@@ -668,42 +720,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-32,45; 8,15</t>
+          <t>-4,28; 0,72</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-38,2; 7,0</t>
+          <t>-3,63; 0,99</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-46,93; 6,31</t>
+          <t>-5,07; 0,72</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-7,93; 18,46</t>
+          <t>-1,77; 1,72</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-93,46; 201,23</t>
+          <t>-1,08; 1,69</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-78,48; 57,95</t>
+          <t>-3,34; 0,58</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-90,42; 78,44</t>
+          <t>-100,0; 259,34</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-53,72; 395,44</t>
+          <t>-80,11; 127,5</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-94,16; 128,64</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-60,45; 160,32</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-63,73; 360,68</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-75,55; 46,78</t>
         </is>
       </c>
     </row>
@@ -720,42 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>0,11</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
           <t>-0,08</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-3,52</t>
-        </is>
-      </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-2,85</t>
+          <t>-0,08</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,7</t>
+          <t>1,37</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-1,41%</t>
+          <t>0,48</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-28,29%</t>
+          <t>-0,42</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-37,12%</t>
+          <t>26,74%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>11,2%</t>
+          <t>-9,14%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>-14,23%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>106,53%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>124,21%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-44,48%</t>
         </is>
       </c>
     </row>
@@ -768,40 +860,60 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-13,05; 7,97</t>
+          <t>-0,72; 0,92</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-17,68; 8,25</t>
+          <t>-1,1; 1,03</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-14,44; 4,03</t>
+          <t>-0,89; 0,66</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-18,14; 14,22</t>
+          <t>-0,23; 3,69</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
+          <t>-0,75; 2,13</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>-2,3; 1,13</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-82,71; 236,25</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-80,79; 357,58</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-90,53; 367,09</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-29,83; 592,75</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="J7" s="2" t="inlineStr">
+      <c r="N7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -825,35 +937,55 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-22,97</t>
+          <t>-4,02</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-7,56</t>
+          <t>-0,66</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>-6,5</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
+      <c r="J8" s="2" t="inlineStr">
         <is>
           <t>-100,0%</t>
         </is>
       </c>
-      <c r="I8" s="2" t="inlineStr">
+      <c r="K8" s="2" t="inlineStr">
         <is>
           <t>-100,0%</t>
         </is>
       </c>
-      <c r="J8" s="2" t="inlineStr">
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-88,4%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -873,35 +1005,55 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-66,0; 0,0</t>
+          <t>-17,88; 0,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-38,96; 0,0</t>
+          <t>-3,51; 0,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>-28,88; 1,61</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
+      <c r="H9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H9" s="2" t="inlineStr">
+      <c r="I9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I9" s="2" t="inlineStr">
+      <c r="J9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="J9" s="2" t="inlineStr">
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -920,42 +1072,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-3,24</t>
+          <t>-0,25</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-10,45</t>
+          <t>-0,75</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-8,56</t>
+          <t>-0,43</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>4,02</t>
+          <t>-0,29</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-33,25%</t>
+          <t>0,48</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-47,77%</t>
+          <t>-0,73</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-53,31%</t>
+          <t>-27,96%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>40,18%</t>
+          <t>-39,9%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>-36,39%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>-12,04%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>51,46%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-34,06%</t>
         </is>
       </c>
     </row>
@@ -968,42 +1140,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-19,52; 4,19</t>
+          <t>-2,16; 0,5</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-25,87; 1,37</t>
+          <t>-2,79; 0,35</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-28,73; 0,8</t>
+          <t>-2,42; 0,33</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-8,65; 13,37</t>
+          <t>-3,67; 1,05</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-86,52; 114,74</t>
+          <t>-0,74; 1,57</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-74,95; 16,03</t>
+          <t>-2,64; 0,38</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-91,19; 11,83</t>
+          <t>-89,69; 177,64</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-53,42; 289,15</t>
+          <t>-79,37; 40,0</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-85,99; 55,61</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-70,84; 74,22</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-54,06; 367,25</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-77,1; 33,5</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1011,11 +1210,11 @@
   <mergeCells count="7">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P12B1_1_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P12B1_1_R-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -650,419 +659,259 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-0,63</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-0,53</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-0,71</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-0,12</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>0,46</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-0,86</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>-42,62%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>-24,66%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>-38,75%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>-5,89%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>41,5%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>-33,92%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-0.560386907345198</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-0.5644391576109388</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-0.7351162699547541</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>-0.08096376777206836</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>0.4565757516109131</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>-0.7929759568193411</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>-0.4030815642779426</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>-0.2601431485065901</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>-0.3980919971107535</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>-0.03986033085811589</v>
+      </c>
+      <c r="M4" s="6" t="n">
+        <v>0.4150143550032399</v>
+      </c>
+      <c r="N4" s="6" t="n">
+        <v>-0.3204374752853946</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-4,28; 0,72</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-3,63; 0,99</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-5,07; 0,72</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-1,77; 1,72</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-1,08; 1,69</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-3,34; 0,58</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; 259,34</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-80,11; 127,5</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>-94,16; 128,64</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>-60,45; 160,32</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>-63,73; 360,68</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>-75,55; 46,78</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-4.111626381609235</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-3.796694372063694</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-5.210229625632167</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-1.691324930636717</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-1.082734394545762</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>-3.138527657746054</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.805892492427891</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>-0.9415974387496432</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>-0.6010057450256763</v>
+      </c>
+      <c r="M5" s="6" t="n">
+        <v>-0.6372651462565251</v>
+      </c>
+      <c r="N5" s="6" t="n">
+        <v>-0.7379026807745608</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>0.7175453480125016</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>1.015791943972377</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>0.6973728642829076</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>1.747314806912221</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>1.686107844557337</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>0.6290646887726484</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>2.866182164591361</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>1.292247035844061</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>1.207278822232893</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>1.626197308858763</v>
+      </c>
+      <c r="M6" s="6" t="n">
+        <v>3.606757359694141</v>
+      </c>
+      <c r="N6" s="6" t="n">
+        <v>0.5003512038979356</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>0,11</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-0,08</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-0,08</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>1,37</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>0,48</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-0,42</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>26,74%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>-9,14%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>-14,23%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>106,53%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>124,21%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>-44,48%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-0,72; 0,92</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-1,1; 1,03</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-0,89; 0,66</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-0,23; 3,69</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-0,75; 2,13</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-2,3; 1,13</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-80,79; 357,58</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>-90,53; 367,09</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>-29,83; 592,75</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>0.1452593226239945</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-0.03038070026208217</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-0.06655024164616499</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>1.414367048782395</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>0.4780637294224167</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>-0.4045880630790932</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>0.3668198381798526</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>-0.0360505117323725</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>-0.1168332495889918</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>1.103196713527987</v>
+      </c>
+      <c r="M7" s="6" t="n">
+        <v>1.242092524143612</v>
+      </c>
+      <c r="N7" s="6" t="n">
+        <v>-0.4304385906417147</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-4,02</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-0,66</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-6,5</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>-88,4%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-0.6305721984815579</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-0.9981744447002142</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-0.8084961897274731</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-0.2198628293195096</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-0.7484661816832714</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>-2.304505807281584</v>
+      </c>
+      <c r="I8" s="6" t="inlineStr"/>
+      <c r="J8" s="6" t="n">
+        <v>-0.796628214706955</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>-0.9072807822034332</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>-0.3101194309560539</v>
+      </c>
+      <c r="M8" s="6" t="inlineStr"/>
+      <c r="N8" s="6" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-17,88; 0,0</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-3,51; 0,0</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-28,88; 1,61</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>0.9841312132585741</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>1.061493722778733</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.667003321812207</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>3.690959824145316</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>2.132923272983941</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>1.171749226214899</v>
+      </c>
+      <c r="I9" s="6" t="inlineStr"/>
+      <c r="J9" s="6" t="n">
+        <v>3.558438283854723</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>3.612091244335963</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>5.946136420690938</v>
+      </c>
+      <c r="M9" s="6" t="inlineStr"/>
+      <c r="N9" s="6" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1070,137 +919,223 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-0,25</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-0,75</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-0,43</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-0,29</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>0,48</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>-0,73</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>-27,96%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>-39,9%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>-36,39%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>-12,04%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>51,46%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>-34,06%</t>
-        </is>
-      </c>
+      <c r="C10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-3.294300265947042</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-0.6904863125323796</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-6.676662494433646</v>
+      </c>
+      <c r="G10" s="5" t="inlineStr"/>
+      <c r="H10" s="5" t="inlineStr"/>
+      <c r="I10" s="6" t="inlineStr"/>
+      <c r="J10" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>-0.8891094769184891</v>
+      </c>
+      <c r="M10" s="6" t="inlineStr"/>
+      <c r="N10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-2,16; 0,5</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-2,79; 0,35</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-2,42; 0,33</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-3,67; 1,05</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-0,74; 1,57</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-2,64; 0,38</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-89,69; 177,64</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-79,37; 40,0</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>-85,99; 55,61</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>-70,84; 74,22</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>-54,06; 367,25</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>-77,1; 33,5</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr"/>
+      <c r="D11" s="5" t="n">
+        <v>-15.05481525650882</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-3.684858909868296</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-29.22869425426599</v>
+      </c>
+      <c r="G11" s="5" t="inlineStr"/>
+      <c r="H11" s="5" t="inlineStr"/>
+      <c r="I11" s="6" t="inlineStr"/>
+      <c r="J11" s="6" t="inlineStr"/>
+      <c r="K11" s="6" t="inlineStr"/>
+      <c r="L11" s="6" t="inlineStr"/>
+      <c r="M11" s="6" t="inlineStr"/>
+      <c r="N11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="inlineStr"/>
+      <c r="D12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>1.530882956869798</v>
+      </c>
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="5" t="inlineStr"/>
+      <c r="I12" s="6" t="inlineStr"/>
+      <c r="J12" s="6" t="inlineStr"/>
+      <c r="K12" s="6" t="inlineStr"/>
+      <c r="L12" s="6" t="inlineStr"/>
+      <c r="M12" s="6" t="inlineStr"/>
+      <c r="N12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>-0.2003022498022108</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-0.6550229220129958</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>-0.4432692182343022</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>-0.2729648032840714</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>0.4779329986311495</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>-0.6781927720854184</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>-0.2429822514523058</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>-0.3687345821167292</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>-0.3709685780466165</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>-0.1142888563872211</v>
+      </c>
+      <c r="M13" s="6" t="n">
+        <v>0.5145737504401945</v>
+      </c>
+      <c r="N13" s="6" t="n">
+        <v>-0.3225820695351178</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-1.954137780160339</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-2.493270695349242</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-2.440979006357245</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-3.78392203980014</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>-0.7402888520034906</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>-2.494844293203275</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.8861119030917606</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.7788253562257047</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>-0.8620026877839453</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>-0.7080788336863126</v>
+      </c>
+      <c r="M14" s="6" t="n">
+        <v>-0.5406136595706198</v>
+      </c>
+      <c r="N14" s="6" t="n">
+        <v>-0.7401084992402654</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>0.5214869550850278</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>0.3890344114406776</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>0.3223462211123148</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>1.055098066928252</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>1.569466972733861</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>0.4221261252508134</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>1.99114606914302</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.454627329191639</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>0.5161000826968851</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>0.781942082656977</v>
+      </c>
+      <c r="M15" s="6" t="n">
+        <v>3.672501338189389</v>
+      </c>
+      <c r="N15" s="6" t="n">
+        <v>0.3617411747542932</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -1208,12 +1143,12 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
     <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
